--- a/Input/Now_Health/userType.xlsx
+++ b/Input/Now_Health/userType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t xml:space="preserve">userType</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dental Waiting Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Waiting Period 1</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Benefits</t>
@@ -399,10 +405,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,9 +644,9 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -654,15 +660,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>35</v>
@@ -670,7 +676,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>36</v>
@@ -678,7 +684,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>37</v>
@@ -694,9 +700,9 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -712,21 +718,21 @@
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>43</v>
@@ -734,9 +740,9 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -746,6 +752,22 @@
       </c>
       <c r="B42" s="6" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
